--- a/IPC2024_base2010/imputacion/indxbase2010_1.xlsx
+++ b/IPC2024_base2010/imputacion/indxbase2010_1.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indgen_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep_div_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep2010_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indgen2010_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrepdiv2010_1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
